--- a/biology/Zoologie/Callopistria/Callopistria.xlsx
+++ b/biology/Zoologie/Callopistria/Callopistria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callopistria est un genre de Lépidoptères de la famille des Noctuidae, à répartition cosmopolite, comprenant plus d'une centaine d'espèces.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit par l'entomologiste bavarois Jacob Hübner en 1821[1].
-Callopistria a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit par l'entomologiste bavarois Jacob Hübner en 1821.
+Callopistria a pour synonymes :
 Agaba Pagenstecher, 1909
 Agabra Walker, 1862
 Agraga Walker, 1858
@@ -560,9 +574,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (6 novembre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (6 novembre 2021) :
 Callopistria aethiops Butler, 1878
 Callopistria aetnea Costa, 1840
 Callopistria albistella Warren, 1913
